--- a/biology/Zoologie/Heptathela_helios/Heptathela_helios.xlsx
+++ b/biology/Zoologie/Heptathela_helios/Heptathela_helios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heptathela helios est une espèce d'araignées mésothèles de la famille des Heptathelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heptathela helios est une espèce d'araignées mésothèles de la famille des Heptathelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Okinawa dans les îles Okinawa dans l'archipel Nansei au Japon[1],[2]. Elle se rencontre dans le Nord de l'île.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Okinawa dans les îles Okinawa dans l'archipel Nansei au Japon,. Elle se rencontre dans le Nord de l'île.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 12,77 mm[3].
-Le mâle mesure 9,88 mm et les femelles de 11,70 à 14,45 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 12,77 mm.
+Le mâle mesure 9,88 mm et les femelles de 11,70 à 14,45 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Tanikawa et Miyashita en 2014.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tanikawa &amp; Miyashita, 2014 : « Discovery of a cryptic species of Heptathela from the northernmost part of Okinawajima Is., Southwest Japan, as revealed by mitochondrial and nuclear DNA. » Acta Arachnologica, vol. 63, no 2, p. 65-72.</t>
         </is>
